--- a/Candace United/Sem_1_2023.xlsx
+++ b/Candace United/Sem_1_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanishkaw/Desktop/Tech/Football-Analysis/Candace United/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D496708D-7351-2D47-9D84-E8EFBF4E01FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49DDCF7-A970-8442-8504-505AF80625BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="THE FINAL" sheetId="9" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -880,11 +879,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,7 +1104,9 @@
   </sheetPr>
   <dimension ref="A1:AP1021"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1169,13 +1170,40 @@
       <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="R1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="AA1" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="179"/>
+      <c r="AC1" s="179"/>
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
+      <c r="AF1" s="179"/>
+      <c r="AG1" s="180"/>
       <c r="AH1" s="9"/>
       <c r="AI1" s="9"/>
       <c r="AJ1" s="9"/>
@@ -1186,7 +1214,7 @@
       <c r="AO1" s="9"/>
       <c r="AP1" s="9"/>
     </row>
-    <row r="2" spans="1:42" ht="13">
+    <row r="2" spans="1:42" ht="42">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1249,9 +1277,59 @@
         <f>SUMIF('Game Stats'!B:B,A2,'Game Stats'!O:O)</f>
         <v>4</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="15"/>
-      <c r="AG2" s="10"/>
+      <c r="R2" s="26">
+        <f>'Game Stats'!Q12</f>
+        <v>10</v>
+      </c>
+      <c r="S2" s="27">
+        <f>'Game Stats'!R12</f>
+        <v>32</v>
+      </c>
+      <c r="T2" s="27">
+        <f>'Game Stats'!S12</f>
+        <v>65</v>
+      </c>
+      <c r="U2" s="27">
+        <f>'Game Stats'!T12</f>
+        <v>5</v>
+      </c>
+      <c r="V2" s="27">
+        <f>'Game Stats'!U12</f>
+        <v>26</v>
+      </c>
+      <c r="W2" s="27">
+        <f>'Game Stats'!V12</f>
+        <v>2</v>
+      </c>
+      <c r="X2" s="28">
+        <f>S2/R2</f>
+        <v>3.2</v>
+      </c>
+      <c r="Y2" s="29">
+        <f>C16/R2</f>
+        <v>6.6</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>46</v>
+      </c>
       <c r="AH2" s="16"/>
       <c r="AJ2" s="10"/>
       <c r="AK2" s="15"/>
@@ -1319,9 +1397,27 @@
         <f>SUMIF('Game Stats'!B:B,A3,'Game Stats'!O:O)</f>
         <v>6</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="15"/>
-      <c r="AG3" s="10"/>
+      <c r="AA3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="36">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="36">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="37">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="37">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="38">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="AG3" s="39">
+        <v>6.166666666666667</v>
+      </c>
       <c r="AH3" s="16"/>
       <c r="AJ3" s="10"/>
       <c r="AK3" s="15"/>
@@ -1389,9 +1485,27 @@
         <f>SUMIF('Game Stats'!B:B,A4,'Game Stats'!O:O)</f>
         <v>2</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="15"/>
-      <c r="AG4" s="10"/>
+      <c r="AA4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="36">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="36">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="37">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="38">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AG4" s="40">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="AH4" s="16"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="15"/>
@@ -1459,9 +1573,27 @@
         <f>SUMIF('Game Stats'!B:B,A5,'Game Stats'!O:O)</f>
         <v>1</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="15"/>
-      <c r="AG5" s="10"/>
+      <c r="AA5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="36">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="36">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="37">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="38">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AG5" s="40">
+        <v>15</v>
+      </c>
       <c r="AH5" s="16"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="15"/>
@@ -1529,9 +1661,27 @@
         <f>SUMIF('Game Stats'!B:B,A6,'Game Stats'!O:O)</f>
         <v>3</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="15"/>
-      <c r="AG6" s="10"/>
+      <c r="AA6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="36">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="36">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="AG6" s="40">
+        <v>18</v>
+      </c>
       <c r="AH6" s="16"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="15"/>
@@ -1599,9 +1749,27 @@
         <f>SUMIF('Game Stats'!B:B,A7,'Game Stats'!O:O)</f>
         <v>7</v>
       </c>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="15"/>
-      <c r="AG7" s="10"/>
+      <c r="AA7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="36">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="36">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="37">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="38">
+        <v>0.375</v>
+      </c>
+      <c r="AG7" s="40">
+        <v>7.2</v>
+      </c>
       <c r="AH7" s="16"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="15"/>
@@ -1669,9 +1837,27 @@
         <f>SUMIF('Game Stats'!B:B,A8,'Game Stats'!O:O)</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="15"/>
-      <c r="AG8" s="10"/>
+      <c r="AA8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="36">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="37">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="37">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="38">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AG8" s="40">
+        <v>4.5</v>
+      </c>
       <c r="AH8" s="16"/>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="15"/>
@@ -1738,9 +1924,27 @@
         <f>SUMIF('Game Stats'!B:B,A9,'Game Stats'!O:O)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="15"/>
-      <c r="AG9" s="10"/>
+      <c r="AA9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="36">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="36">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="37">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="38">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG9" s="40">
+        <v>18</v>
+      </c>
       <c r="AH9" s="16"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="15"/>
@@ -1807,9 +2011,27 @@
         <f>SUMIF('Game Stats'!B:B,A10,'Game Stats'!O:O)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="15"/>
-      <c r="AG10" s="10"/>
+      <c r="AA10" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="43">
+        <v>108</v>
+      </c>
+      <c r="AC10" s="43">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="43">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="43">
+        <v>14</v>
+      </c>
+      <c r="AF10" s="44">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AG10" s="45">
+        <v>21.6</v>
+      </c>
       <c r="AH10" s="16"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="15"/>
@@ -2239,31 +2461,7 @@
       <c r="AH18" s="9"/>
       <c r="AK18" s="9"/>
     </row>
-    <row r="19" spans="1:42" ht="42">
-      <c r="A19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>39</v>
-      </c>
+    <row r="19" spans="1:42" ht="13">
       <c r="AB19" s="10"/>
       <c r="AC19" s="24"/>
       <c r="AH19" s="10"/>
@@ -2272,38 +2470,6 @@
       <c r="AL19" s="25"/>
     </row>
     <row r="20" spans="1:42" ht="13">
-      <c r="A20" s="26">
-        <f>'Game Stats'!Q12</f>
-        <v>10</v>
-      </c>
-      <c r="B20" s="27">
-        <f>'Game Stats'!R12</f>
-        <v>32</v>
-      </c>
-      <c r="C20" s="27">
-        <f>'Game Stats'!S12</f>
-        <v>65</v>
-      </c>
-      <c r="D20" s="27">
-        <f>'Game Stats'!T12</f>
-        <v>5</v>
-      </c>
-      <c r="E20" s="27">
-        <f>'Game Stats'!U12</f>
-        <v>26</v>
-      </c>
-      <c r="F20" s="27">
-        <f>'Game Stats'!V12</f>
-        <v>2</v>
-      </c>
-      <c r="G20" s="28">
-        <f>B20/A20</f>
-        <v>3.2</v>
-      </c>
-      <c r="H20" s="29">
-        <f>C16/A20</f>
-        <v>6.6</v>
-      </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="24"/>
       <c r="AG20" s="10"/>
@@ -2349,15 +2515,6 @@
       <c r="AK23" s="24"/>
     </row>
     <row r="24" spans="1:42" ht="13">
-      <c r="A24" s="180" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="179"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="AA24" s="10" t="s">
@@ -2373,27 +2530,6 @@
       <c r="AK24" s="24"/>
     </row>
     <row r="25" spans="1:42" ht="36.75" customHeight="1">
-      <c r="A25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>46</v>
-      </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="AB25" s="16"/>
@@ -2410,27 +2546,6 @@
       <c r="AP25" s="34"/>
     </row>
     <row r="26" spans="1:42" ht="22.5" customHeight="1">
-      <c r="A26" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="36">
-        <v>37</v>
-      </c>
-      <c r="C26" s="36">
-        <v>7</v>
-      </c>
-      <c r="D26" s="37">
-        <v>6</v>
-      </c>
-      <c r="E26" s="37">
-        <v>13</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="G26" s="39">
-        <v>6.166666666666667</v>
-      </c>
       <c r="AB26" s="9" t="s">
         <v>9</v>
       </c>
@@ -2438,27 +2553,6 @@
       <c r="AK26" s="9"/>
     </row>
     <row r="27" spans="1:42" ht="13">
-      <c r="A27" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="36">
-        <v>49</v>
-      </c>
-      <c r="C27" s="36">
-        <v>9</v>
-      </c>
-      <c r="D27" s="37">
-        <v>5</v>
-      </c>
-      <c r="E27" s="37">
-        <v>14</v>
-      </c>
-      <c r="F27" s="38">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G27" s="40">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="AA27" s="10" t="s">
         <v>18</v>
       </c>
@@ -2472,27 +2566,6 @@
       <c r="AK27" s="16"/>
     </row>
     <row r="28" spans="1:42" ht="13">
-      <c r="A28" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="36">
-        <v>45</v>
-      </c>
-      <c r="C28" s="36">
-        <v>4</v>
-      </c>
-      <c r="D28" s="37">
-        <v>3</v>
-      </c>
-      <c r="E28" s="37">
-        <v>7</v>
-      </c>
-      <c r="F28" s="38">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G28" s="40">
-        <v>15</v>
-      </c>
       <c r="AA28" s="10" t="s">
         <v>19</v>
       </c>
@@ -2506,27 +2579,6 @@
       <c r="AK28" s="41"/>
     </row>
     <row r="29" spans="1:42" ht="13">
-      <c r="A29" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="36">
-        <v>36</v>
-      </c>
-      <c r="C29" s="36">
-        <v>6</v>
-      </c>
-      <c r="D29" s="37">
-        <v>2</v>
-      </c>
-      <c r="E29" s="37">
-        <v>8</v>
-      </c>
-      <c r="F29" s="38">
-        <v>0.75</v>
-      </c>
-      <c r="G29" s="40">
-        <v>18</v>
-      </c>
       <c r="AA29" s="10" t="s">
         <v>20</v>
       </c>
@@ -2540,27 +2592,6 @@
       <c r="AK29" s="41"/>
     </row>
     <row r="30" spans="1:42" ht="13">
-      <c r="A30" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="36">
-        <v>36</v>
-      </c>
-      <c r="C30" s="36">
-        <v>3</v>
-      </c>
-      <c r="D30" s="37">
-        <v>5</v>
-      </c>
-      <c r="E30" s="37">
-        <v>8</v>
-      </c>
-      <c r="F30" s="38">
-        <v>0.375</v>
-      </c>
-      <c r="G30" s="40">
-        <v>7.2</v>
-      </c>
       <c r="AA30" s="10" t="s">
         <v>21</v>
       </c>
@@ -2574,27 +2605,6 @@
       <c r="AK30" s="41"/>
     </row>
     <row r="31" spans="1:42" ht="13">
-      <c r="A31" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="36">
-        <v>27</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="37">
-        <v>6</v>
-      </c>
-      <c r="E31" s="37">
-        <v>7</v>
-      </c>
-      <c r="F31" s="38">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G31" s="40">
-        <v>4.5</v>
-      </c>
       <c r="AA31" s="10" t="s">
         <v>22</v>
       </c>
@@ -2608,27 +2618,6 @@
       <c r="AK31" s="41"/>
     </row>
     <row r="32" spans="1:42" ht="13">
-      <c r="A32" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="36">
-        <v>18</v>
-      </c>
-      <c r="C32" s="36">
-        <v>2</v>
-      </c>
-      <c r="D32" s="37">
-        <v>1</v>
-      </c>
-      <c r="E32" s="37">
-        <v>3</v>
-      </c>
-      <c r="F32" s="38">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G32" s="40">
-        <v>18</v>
-      </c>
       <c r="AA32" s="10" t="s">
         <v>23</v>
       </c>
@@ -2642,27 +2631,6 @@
       <c r="AK32" s="41"/>
     </row>
     <row r="33" spans="1:37" ht="13">
-      <c r="A33" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="43">
-        <v>108</v>
-      </c>
-      <c r="C33" s="43">
-        <v>9</v>
-      </c>
-      <c r="D33" s="43">
-        <v>5</v>
-      </c>
-      <c r="E33" s="43">
-        <v>14</v>
-      </c>
-      <c r="F33" s="44">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G33" s="45">
-        <v>21.6</v>
-      </c>
       <c r="AA33" s="10" t="s">
         <v>24</v>
       </c>
@@ -7697,7 +7665,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="AA1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7710,7 +7678,7 @@
   </sheetPr>
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
@@ -53343,15 +53311,15 @@
       <c r="E1" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="180" t="s">
+      <c r="G1" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="180"/>
       <c r="O1" s="93"/>
       <c r="P1" s="93"/>
       <c r="Q1" s="11" t="s">
